--- a/produtos2.xlsx
+++ b/produtos2.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SEM GTIN</t>
+          <t>['Código de Barras']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Não disponível</t>
+          <t>0.05100000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Não disponível</t>
+          <t>FENIX</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Não disponível</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/8518/8518.jpg</t>
         </is>
       </c>
     </row>
